--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241217).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241217).xlsx
@@ -1019,20 +1019,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 질문 
-(미디어 쿼리)
-1. 미디어 쿼리의 흐름 어떻게 잡으면서 가야하는지?
-(common.css)
-2. 상단 탑영역 클릭하면 등장하는 것은 제이쿼리나 자바스크립트로 해야하는건지?
-(main.css)
-3. (315라인)원본 페이지 선처럼 엄청 얇게 하려면 어떻게 해야하는건지?
-4. (377라인) 해당 CSS 안에서 정 중앙에 선을 그을 수 있는 방법!
-5. (692라인) 선을 박스에 맞게 조정하는 법? 포지션 위치관계에 대한 정리!
-6. (837라인)우선 오버가먹히지 않고... 글자에만 밑줄을 주려면 어떻게 해야하는지?
-7. (838라인) 어디에서 가로스크롤이 발생했는지 모르겠습니다 .. ! 이걸 찾을때는 어떻게 하는 것이 좋은지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. Lookbook, Article, Sub Article , 하단영역 html &amp; css 완료
 -&gt; 미디어 쿼리 질문이후에 미디어쿼리 진행, 이후 서브페이지 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1109,6 +1095,21 @@
   <si>
     <t>1. 탑 상단영역 로고 SVG 색상 셋팅
 2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 질문 
+(미디어 쿼리)
+1. 미디어 쿼리의 흐름 어떻게 잡으면서 가야하는지?
+(common.css)
+2. 상단 탑영역 클릭하면 등장하는 것은 제이쿼리나 자바스크립트로 해야하는건지?
+(main.css)
+3. (315라인)원본 페이지 선처럼 엄청 얇게 하려면 어떻게 해야하는건지?
+4. (377라인) 해당 CSS 안에서 정 중앙에 선을 그을 수 있는 방법!
+5. (692라인) 선을 박스에 맞게 조정하는 법? 포지션 위치관계에 대한 정리!
+6. (837라인)우선 오버가먹히지 않고... 글자에만 밑줄을 주려면 어떻게 해야하는지?
+7. (838라인) 어디에서 가로스크롤이 발생했는지 모르겠습니다 .. ! 이걸 찾을때는 어떻게 하는 것이 좋은지?
+9. 서브메뉴, 장바구니 버튼 어떻게 연결하는 것이 좋을지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2791,7 +2792,7 @@
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
@@ -5863,10 +5864,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="H22" sqref="H22"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5898,7 +5899,7 @@
       </c>
       <c r="D3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
@@ -6045,10 +6046,10 @@
         <v>150</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
@@ -6210,7 +6211,7 @@
         <v>157</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
@@ -6355,13 +6356,13 @@
         <v>153</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
@@ -6508,7 +6509,7 @@
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
@@ -6522,6 +6523,47 @@
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -6538,47 +6580,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241217).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241217).xlsx
@@ -1103,6 +1103,7 @@
 1. 미디어 쿼리의 흐름 어떻게 잡으면서 가야하는지?
 (common.css)
 2. 상단 탑영역 클릭하면 등장하는 것은 제이쿼리나 자바스크립트로 해야하는건지?
+3. 장바구니 갯수 버튼 동그라미 모양 픽스하는 법 (찌그러짐..)
 (main.css)
 3. (315라인)원본 페이지 선처럼 엄청 얇게 하려면 어떻게 해야하는건지?
 4. (377라인) 해당 CSS 안에서 정 중앙에 선을 그을 수 있는 방법!
@@ -6523,47 +6524,6 @@
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -6580,6 +6540,47 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241217).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241217).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="167">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -907,11 +907,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 메인페이지 목표달성 기한내에 불가
-대책 : 수업 외 작업시간 확보해서 진행 , 주말에 연장해서 작업 진행.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">* 질문
 (common.css)
@@ -1028,10 +1023,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 탑 상단영역 로고 SVG 색상 셋팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -1073,10 +1064,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 질문 및 피드백 진행
+2. 서브페이지 룩북 이미지 위치 잡는 중  
+3. 메인페이지 미디어쿼리 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1. 미디어 쿼리 흐름 구상 및 적응해야함.
-2. 미디어 쿼리 시간 최소화
-3. 수-목요일 이내에 서브페이지 구현이 어느정도 완료 되어야 기능 구현에 신경쓸 수 있음.
+      <t xml:space="preserve">* 질문 
+(미디어 쿼리)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 미디어 쿼리의 흐름 어떻게 잡으면서 가야하는지?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1088,29 +1108,463 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-&gt; 내일 꼭 피드백 진행 필요!</t>
+      <t>-&gt; 우선 쿼리CSS 파일 경로 link rel로 지정해야함.(rel=stylesheet로 수정해주심 ..)
+-&gt; 모바일을 기준으로 한 레이아웃을 먼저 구상해야함.
+다시말하면 컨텐츠의 흐름을 화면 크기에 따라 재구성할 것.
+-&gt; 이미지 위치를 잡을때는 화면 중앙을 기준으로 잡는 것이 좋음.
+-&gt; 글씨 사이즈는 화면을 줄여보면서 최소 크기나 줄개수를 생각하면서 잡으면 됨.
+-&gt; 모바일에 맞춰서 레이아웃 셋팅이 어느정도 끝나면 모바일로도 확인하면서 쿼리 적용이 잘 되는지 확인해야한다.
+-&gt; 지금 page 클래스를 해제해서 화면 크기를 줄여보면 위치를 주장하고 있는(특히 위치) 요소들이 있는데 이 요소들에 대한 정리가 필요함.
+* 주의 : display-flex를 주면 br태그가 적용되지 않는다.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 탑 상단영역 로고 SVG 색상 셋팅
-2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 질문 
-(미디어 쿼리)
-1. 미디어 쿼리의 흐름 어떻게 잡으면서 가야하는지?
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 (common.css)
-2. 상단 탑영역 클릭하면 등장하는 것은 제이쿼리나 자바스크립트로 해야하는건지?
-3. 장바구니 갯수 버튼 동그라미 모양 픽스하는 법 (찌그러짐..)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 상단 탑영역 클릭하면 등장하는 것은 제이쿼리나 자바스크립트로 해야하는건지?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 연결완료. 제이쿼리로 하는것이 지금으로서는 좋을 것 같음.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 장바구니 갯수 버튼 동그라미 모양 픽스하는 법 (찌그러짐..)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 보더레디우스 원 50퍼만 줘도 됨
+height 주고 , width와 함께 비율 조정하면 됨.
+(고정해야하는 단위므로 px로 단위변경)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 (main.css)
-3. (315라인)원본 페이지 선처럼 엄청 얇게 하려면 어떻게 해야하는건지?
-4. (377라인) 해당 CSS 안에서 정 중앙에 선을 그을 수 있는 방법!
-5. (692라인) 선을 박스에 맞게 조정하는 법? 포지션 위치관계에 대한 정리!
-6. (837라인)우선 오버가먹히지 않고... 글자에만 밑줄을 주려면 어떻게 해야하는지?
-7. (838라인) 어디에서 가로스크롤이 발생했는지 모르겠습니다 .. ! 이걸 찾을때는 어떻게 하는 것이 좋은지?
-9. 서브메뉴, 장바구니 버튼 어떻게 연결하는 것이 좋을지?</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. (315라인)원본 페이지 선처럼 엄청 얇게 하려면 어떻게 해야하는건지?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 투명도 조정하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. (377라인) 해당 CSS 안에서 정 중앙에 선을 그을 수 있는 방법!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 부모박스에 렐러티브주고 ,
+가상클래스 ::before 넣어서 속성주기
+content = ''
+height = 100%
+width = 1px
+(bgc = white)
+left = 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. (692라인) 선을 박스에 맞게 조정하는 법? 포지션 위치관계에 대한 정리!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 플렉스를 줄 수 있는 곳 포지션 앱솔로 위치를 고정시켜놓는 것은 최악의 셋팅.
+-&gt; 앱솔을 없애고, 부모박스에 플렉스와 등분할을 줘서 컨텐츠가 박스 안에서 흘러갈 수 있도록 하는 것이 좋음.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. (837라인)우선 오버가먹히지 않고... 글자에만 밑줄을 주려면 어떻게 해야하는지?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt; 밑줄 애니메이션 공통 클래스를 만들고 애니메이션 잘 적용되는지 확인(색깔에 따라 안보일 수가 있음.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">7. (838라인) 어디에서 가로스크롤이 발생했는지 모르겠습니다 .. ! 이걸 찾을때는 어떻게 하는 것이 좋은지?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; body 혹은 html에 overflow-X=hidden 설정
+단 , position=sticy를 주는 경우에는 잘 적용되는지 확인해야함.
+-&gt; 가로 스크롤이 생기는 것을 되도록 찾아서 해결해주는 것이 좋음.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 서브메뉴, 장바구니 버튼 어떻게 연결하는 것이 좋을지?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 제이쿼리로 연결 완료
+* 위치관계에 대해서는 절대적인 위치를 잡지 말고, 상대적인 위치로 잡혀서 미디어쿼리에 용이하도록 해야함.
+예를 들어, 이미지를 배치할 때 translate로 위치를 중앙으로 잡아놓고 여러개를 순차적으로 배치해놓는것이 나중에 작업하기 좋음.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 미디어 쿼리 흐름 구상 및 적응해야함.
+2. 미디어 쿼리 시간 최소화
+3. 수-목요일 이내에 서브페이지 구현이 어느정도 완료 되어야 기능 구현에 신경쓸 수 있음.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 내일 꼭 피드백 진행 필요! 피드백 진행 완료</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 메인페이지 목표달성 기한내에 불가
+대책 : 수업 외 작업시간 확보해서 진행 , 주말에 연장해서 작업 진행.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt;12/17일(화) 기준 19일(목) 까지 서브페이지 html,css 구현 및 메인페이지 미디어쿼리 마무리 가능할 것으로 판단
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 탑 상단영역 로고 SVG 색상 셋팅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 상단 탑 영역을 꼭 색감에 따라서 스타일을 달리해야하나 ? : 전체적으로 그림자를 주면 전체에서 잘 보일 수 있을걸로 판단 -&gt; 스타일을 하나로 통일하면 좋을 듯.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인페이지 미디어 쿼리 룩북까지는 진행
+2. 룩북,shop,contact 서브페이지 html,css 완료
+3. 선생님 피드백 및 수정 진행한 서브페이지 css 파일 정리하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,7 +1578,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,6 +1755,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -1809,9 +2272,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1904,6 +2364,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2777,11 +3240,11 @@
   <sheetData>
     <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
@@ -2804,60 +3267,60 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>45630</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="36"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="35"/>
     </row>
     <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="57"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="20">
         <f>I4</f>
         <v>45630</v>
@@ -2948,13 +3411,13 @@
       </c>
     </row>
     <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="58"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="21">
         <f>I5</f>
         <v>45630</v>
@@ -5865,10 +6328,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5879,17 +6342,18 @@
     <col min="5" max="5" width="60.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="54.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.125" customWidth="1"/>
-    <col min="9" max="14" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.125" customWidth="1"/>
+    <col min="9" max="9" width="51.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="29.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="14"/>
       <c r="E2" s="22"/>
       <c r="F2" s="3"/>
@@ -5910,78 +6374,78 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="58" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" spans="1:14" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
@@ -6047,12 +6511,14 @@
         <v>150</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="26"/>
+        <v>157</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>160</v>
+      </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
@@ -6076,78 +6542,78 @@
       <c r="B10"/>
     </row>
     <row r="11" spans="1:14" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="58" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
     </row>
     <row r="14" spans="1:14" s="13" customFormat="1" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
@@ -6207,12 +6673,12 @@
         <v>140</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>164</v>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
@@ -6223,78 +6689,78 @@
     </row>
     <row r="16" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="J17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="N17" s="59" t="s">
+      <c r="N17" s="58" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -6357,15 +6823,15 @@
         <v>153</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>160</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G21" s="26"/>
       <c r="H21" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="I21" s="26"/>
+        <v>164</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>166</v>
+      </c>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
@@ -6374,78 +6840,78 @@
     </row>
     <row r="22" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="K23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="L23" s="59" t="s">
+      <c r="L23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="59" t="s">
+      <c r="M23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="59" t="s">
+      <c r="N23" s="58" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="62"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
@@ -6505,14 +6971,16 @@
       <c r="E27" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="32" t="s">
-        <v>156</v>
+      <c r="F27" s="63" t="s">
+        <v>163</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="I27" s="29"/>
+      <c r="I27" s="63" t="s">
+        <v>165</v>
+      </c>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -6524,6 +6992,47 @@
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -6540,47 +7049,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241217).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241217).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="165">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -907,6 +907,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 메인페이지 목표달성 기한내에 불가
+대책 : 수업 외 작업시간 확보해서 진행 , 주말에 연장해서 작업 진행.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">* 질문
 (common.css)
@@ -1023,6 +1028,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 탑 상단영역 로고 SVG 색상 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -1064,39 +1073,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 질문 및 피드백 진행
-2. 서브페이지 룩북 이미지 위치 잡는 중  
-3. 메인페이지 미디어쿼리 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">* 질문 
-(미디어 쿼리)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 미디어 쿼리의 흐름 어떻게 잡으면서 가야하는지?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">1. 미디어 쿼리 흐름 구상 및 적응해야함.
+2. 미디어 쿼리 시간 최소화
+3. 수-목요일 이내에 서브페이지 구현이 어느정도 완료 되어야 기능 구현에 신경쓸 수 있음.
 </t>
     </r>
     <r>
@@ -1108,463 +1088,29 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-&gt; 우선 쿼리CSS 파일 경로 link rel로 지정해야함.(rel=stylesheet로 수정해주심 ..)
--&gt; 모바일을 기준으로 한 레이아웃을 먼저 구상해야함.
-다시말하면 컨텐츠의 흐름을 화면 크기에 따라 재구성할 것.
--&gt; 이미지 위치를 잡을때는 화면 중앙을 기준으로 잡는 것이 좋음.
--&gt; 글씨 사이즈는 화면을 줄여보면서 최소 크기나 줄개수를 생각하면서 잡으면 됨.
--&gt; 모바일에 맞춰서 레이아웃 셋팅이 어느정도 끝나면 모바일로도 확인하면서 쿼리 적용이 잘 되는지 확인해야한다.
--&gt; 지금 page 클래스를 해제해서 화면 크기를 줄여보면 위치를 주장하고 있는(특히 위치) 요소들이 있는데 이 요소들에 대한 정리가 필요함.
-* 주의 : display-flex를 주면 br태그가 적용되지 않는다.</t>
+      <t>-&gt; 내일 꼭 피드백 진행 필요!</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 탑 상단영역 로고 SVG 색상 셋팅
+2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 질문 
+(미디어 쿼리)
+1. 미디어 쿼리의 흐름 어떻게 잡으면서 가야하는지?
 (common.css)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 상단 탑영역 클릭하면 등장하는 것은 제이쿼리나 자바스크립트로 해야하는건지?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt; 연결완료. 제이쿼리로 하는것이 지금으로서는 좋을 것 같음.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. 장바구니 갯수 버튼 동그라미 모양 픽스하는 법 (찌그러짐..)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt; 보더레디우스 원 50퍼만 줘도 됨
-height 주고 , width와 함께 비율 조정하면 됨.
-(고정해야하는 단위므로 px로 단위변경)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+2. 상단 탑영역 클릭하면 등장하는 것은 제이쿼리나 자바스크립트로 해야하는건지?
+3. 장바구니 갯수 버튼 동그라미 모양 픽스하는 법 (찌그러짐..)
 (main.css)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3. (315라인)원본 페이지 선처럼 엄청 얇게 하려면 어떻게 해야하는건지?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt; 투명도 조정하기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. (377라인) 해당 CSS 안에서 정 중앙에 선을 그을 수 있는 방법!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt; 부모박스에 렐러티브주고 ,
-가상클래스 ::before 넣어서 속성주기
-content = ''
-height = 100%
-width = 1px
-(bgc = white)
-left = 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5. (692라인) 선을 박스에 맞게 조정하는 법? 포지션 위치관계에 대한 정리!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt; 플렉스를 줄 수 있는 곳 포지션 앱솔로 위치를 고정시켜놓는 것은 최악의 셋팅.
--&gt; 앱솔을 없애고, 부모박스에 플렉스와 등분할을 줘서 컨텐츠가 박스 안에서 흘러갈 수 있도록 하는 것이 좋음.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6. (837라인)우선 오버가먹히지 않고... 글자에만 밑줄을 주려면 어떻게 해야하는지?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--&gt; 밑줄 애니메이션 공통 클래스를 만들고 애니메이션 잘 적용되는지 확인(색깔에 따라 안보일 수가 있음.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">7. (838라인) 어디에서 가로스크롤이 발생했는지 모르겠습니다 .. ! 이걸 찾을때는 어떻게 하는 것이 좋은지?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt; body 혹은 html에 overflow-X=hidden 설정
-단 , position=sticy를 주는 경우에는 잘 적용되는지 확인해야함.
--&gt; 가로 스크롤이 생기는 것을 되도록 찾아서 해결해주는 것이 좋음.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-8</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 서브메뉴, 장바구니 버튼 어떻게 연결하는 것이 좋을지?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt; 제이쿼리로 연결 완료
-* 위치관계에 대해서는 절대적인 위치를 잡지 말고, 상대적인 위치로 잡혀서 미디어쿼리에 용이하도록 해야함.
-예를 들어, 이미지를 배치할 때 translate로 위치를 중앙으로 잡아놓고 여러개를 순차적으로 배치해놓는것이 나중에 작업하기 좋음.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 미디어 쿼리 흐름 구상 및 적응해야함.
-2. 미디어 쿼리 시간 최소화
-3. 수-목요일 이내에 서브페이지 구현이 어느정도 완료 되어야 기능 구현에 신경쓸 수 있음.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt; 내일 꼭 피드백 진행 필요! 피드백 진행 완료</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 메인페이지 목표달성 기한내에 불가
-대책 : 수업 외 작업시간 확보해서 진행 , 주말에 연장해서 작업 진행.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--&gt;12/17일(화) 기준 19일(목) 까지 서브페이지 html,css 구현 및 메인페이지 미디어쿼리 마무리 가능할 것으로 판단
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 탑 상단영역 로고 SVG 색상 셋팅
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 상단 탑 영역을 꼭 색감에 따라서 스타일을 달리해야하나 ? : 전체적으로 그림자를 주면 전체에서 잘 보일 수 있을걸로 판단 -&gt; 스타일을 하나로 통일하면 좋을 듯.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 메인페이지 미디어 쿼리 룩북까지는 진행
-2. 룩북,shop,contact 서브페이지 html,css 완료
-3. 선생님 피드백 및 수정 진행한 서브페이지 css 파일 정리하기</t>
+3. (315라인)원본 페이지 선처럼 엄청 얇게 하려면 어떻게 해야하는건지?
+4. (377라인) 해당 CSS 안에서 정 중앙에 선을 그을 수 있는 방법!
+5. (692라인) 선을 박스에 맞게 조정하는 법? 포지션 위치관계에 대한 정리!
+6. (837라인)우선 오버가먹히지 않고... 글자에만 밑줄을 주려면 어떻게 해야하는지?
+7. (838라인) 어디에서 가로스크롤이 발생했는지 모르겠습니다 .. ! 이걸 찾을때는 어떻게 하는 것이 좋은지?
+9. 서브메뉴, 장바구니 버튼 어떻게 연결하는 것이 좋을지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1578,7 +1124,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,15 +1301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -2272,6 +1809,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2364,9 +1904,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3240,11 +2777,11 @@
   <sheetData>
     <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
@@ -3267,60 +2804,60 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="34">
         <v>45630</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="36"/>
     </row>
     <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="20">
         <f>I4</f>
         <v>45630</v>
@@ -3411,13 +2948,13 @@
       </c>
     </row>
     <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="57"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="21">
         <f>I5</f>
         <v>45630</v>
@@ -6328,10 +5865,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6342,18 +5879,17 @@
     <col min="5" max="5" width="60.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="54.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.125" customWidth="1"/>
-    <col min="9" max="9" width="51.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.125" customWidth="1"/>
+    <col min="9" max="14" width="29.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="14"/>
       <c r="E2" s="22"/>
       <c r="F2" s="3"/>
@@ -6374,78 +5910,78 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="1:14" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
@@ -6511,14 +6047,12 @@
         <v>150</v>
       </c>
       <c r="G8" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>160</v>
-      </c>
+      <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
@@ -6542,78 +6076,78 @@
       <c r="B10"/>
     </row>
     <row r="11" spans="1:14" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="58" t="s">
+      <c r="L11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="58" t="s">
+      <c r="N11" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
     </row>
     <row r="13" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
     </row>
     <row r="14" spans="1:14" s="13" customFormat="1" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
@@ -6673,12 +6207,12 @@
         <v>140</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>161</v>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
@@ -6689,78 +6223,78 @@
     </row>
     <row r="16" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="58" t="s">
+      <c r="L17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="N17" s="58" t="s">
+      <c r="N17" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -6823,15 +6357,15 @@
         <v>153</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="26"/>
+        <v>161</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>160</v>
+      </c>
       <c r="H21" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>166</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
@@ -6840,78 +6374,78 @@
     </row>
     <row r="22" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="58" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="58" t="s">
+      <c r="K23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="L23" s="58" t="s">
+      <c r="L23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="58" t="s">
+      <c r="N23" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="61"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
@@ -6971,16 +6505,14 @@
       <c r="E27" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="63" t="s">
-        <v>163</v>
+      <c r="F27" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="I27" s="63" t="s">
-        <v>165</v>
-      </c>
+      <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -6992,47 +6524,6 @@
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -7049,6 +6540,47 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
